--- a/console/Networking/podChExcel/podMixinsXlsx/components/detail/detailTab.xlsx
+++ b/console/Networking/podChExcel/podMixinsXlsx/components/detail/detailTab.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.23\console_1901-24_HO-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -819,15 +814,15 @@
     </r>
   </si>
   <si>
-    <t>Intranet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Copied</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Modify description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +830,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -862,6 +857,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -883,9 +889,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1225,15 +1233,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="27.125" style="1"/>
+    <col min="1" max="3" width="27.125" style="1"/>
+    <col min="4" max="4" width="27.125" style="2"/>
+    <col min="5" max="16384" width="27.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1255,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,7 +1320,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1551,8 +1561,8 @@
       <c r="B29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>114</v>
+      <c r="C29" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1562,7 +1572,7 @@
       <c r="B30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>80</v>
       </c>
     </row>
